--- a/Metropolitan Roads/28921/ITP-092-CIV-PSDS-Fencing Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-092-CIV-PSDS-Fencing Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-092-CIV-PSDS-Temporary Fencing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB24474-EA01-4905-89D1-A3D054EFC3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201699EF-286A-4C8F-91D1-1E7FCC05B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="570" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +935,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -974,53 +1016,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,7 +1529,7 @@
   </sheetPr>
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
@@ -1557,11 +1554,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="10"/>
-      <c r="C2" s="70" t="str">
+      <c r="C2" s="50" t="str">
         <f>"ITP-"&amp;C3&amp;"-"&amp;C5&amp;"-"&amp;C4</f>
         <v>ITP-092-CIV-PSDS-Temporary Fencing</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1580,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1591,10 +1588,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1602,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="70">
+      <c r="C6" s="50">
         <v>0</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1613,10 +1610,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="72">
+      <c r="C7" s="52">
         <v>45302</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1624,10 +1621,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1635,10 +1632,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -1646,36 +1643,36 @@
         <v>11</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="46"/>
     </row>
     <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
       <c r="J13" s="17" t="s">
         <v>12</v>
       </c>
@@ -1691,12 +1688,12 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1708,12 +1705,12 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="O15" s="1"/>
@@ -1722,15 +1719,15 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="O16" s="1"/>
@@ -1756,43 +1753,43 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="60" t="s">
         <v>23</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1802,10 +1799,10 @@
       <c r="G19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="69"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="60"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
@@ -1813,18 +1810,18 @@
       <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -1865,18 +1862,18 @@
       <c r="A22" s="14">
         <v>2</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -1944,18 +1941,18 @@
       <c r="A25" s="14">
         <v>3</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="26" spans="1:19" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
@@ -1992,18 +1989,18 @@
       <c r="A27" s="14">
         <v>4</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
     </row>
     <row r="28" spans="1:19" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
@@ -2075,7 +2072,7 @@
       <c r="C30" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="47" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="30" t="s">
@@ -2137,7 +2134,7 @@
       <c r="C32" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="41" t="s">
         <v>82</v>
       </c>
       <c r="E32" s="30" t="s">
@@ -2168,7 +2165,7 @@
       <c r="C33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="41" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="30" t="s">
@@ -2199,7 +2196,7 @@
       <c r="C34" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="41" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="30" t="s">
@@ -2230,7 +2227,7 @@
       <c r="C35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="41" t="s">
         <v>87</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -2253,46 +2250,46 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="49"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="49"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="63"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
@@ -2311,42 +2308,42 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="38"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="49"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="49"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
@@ -2363,13 +2360,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K42"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K38"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="D12:K12"/>
@@ -2382,18 +2384,13 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K42"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B37:K38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2460,6 +2457,46 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <_dlc_DocId xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">MRPA-1151362262-15714</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD07655/_layouts/15/DocIdRedir.aspx?ID=MRPA-1151362262-15714</Url>
+      <Description>MRPA-1151362262-15714</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <l022594273414f01bacd7bb154af51a1 xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Progress Street</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8a381bdb-76b3-4206-94a8-ac5cc1562dad</TermId>
+        </TermInfo>
+      </Terms>
+    </l022594273414f01bacd7bb154af51a1>
+    <_Flow_SignoffStatus xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A32FBC6DF11D9A49BB1827B8655300DF" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5da458280d7da257179dfb415cba8cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3be47954-cb7c-45b2-ab7a-53ada5817909" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="f261dd73-1b88-4a81-8a52-9d4972ac76e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7a2390b6474ac135b240cac7cbccb5" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
@@ -2732,46 +2769,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Value>1</Value>
-    </TaxCatchAll>
-    <_dlc_DocId xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">MRPA-1151362262-15714</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD07655/_layouts/15/DocIdRedir.aspx?ID=MRPA-1151362262-15714</Url>
-      <Description>MRPA-1151362262-15714</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <l022594273414f01bacd7bb154af51a1 xmlns="3be47954-cb7c-45b2-ab7a-53ada5817909">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Progress Street</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8a381bdb-76b3-4206-94a8-ac5cc1562dad</TermId>
-        </TermInfo>
-      </Terms>
-    </l022594273414f01bacd7bb154af51a1>
-    <_Flow_SignoffStatus xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3" xsi:nil="true"/>
-    <MediaLengthInSeconds xmlns="f261dd73-1b88-4a81-8a52-9d4972ac76e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
   <ds:schemaRefs>
@@ -2781,6 +2778,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
+    <ds:schemaRef ds:uri="f261dd73-1b88-4a81-8a52-9d4972ac76e3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F804ED4B-65AF-4013-B6BF-447BE08F1FEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2798,24 +2815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="3be47954-cb7c-45b2-ab7a-53ada5817909"/>
-    <ds:schemaRef ds:uri="f261dd73-1b88-4a81-8a52-9d4972ac76e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>